--- a/Documentation/Agile Gantt chartProjectFinal.xlsx
+++ b/Documentation/Agile Gantt chartProjectFinal.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{684D94CC-A0DE-4247-869E-2F69DEFAB9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7450D0A9-B1CF-4607-B89F-8B013D825154}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{684D94CC-A0DE-4247-869E-2F69DEFAB9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D8E7939-DD5D-4F3E-86AF-12865DB85DAD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="63">
   <si>
     <t>Task 3</t>
   </si>
@@ -203,9 +203,6 @@
     <t>Design Personas - three</t>
   </si>
   <si>
-    <t>Review Personas - three</t>
-  </si>
-  <si>
     <t>Iteration 2</t>
   </si>
   <si>
@@ -261,6 +258,9 @@
   </si>
   <si>
     <t>Submit Progress Report 3</t>
+  </si>
+  <si>
+    <t>Test Personas - three</t>
   </si>
 </sst>
 </file>
@@ -1301,36 +1301,6 @@
   </cellStyles>
   <dxfs count="89">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
@@ -1582,36 +1552,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
@@ -1855,121 +1795,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.249977111117893"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2481,6 +2306,181 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2759,7 +2759,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$C$7" horiz="1" max="365" page="2" val="53"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$C$7" horiz="1" max="365" page="2" val="13"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2994,8 +2994,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:G40" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="B9:G40" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:G32" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
+  <autoFilter ref="B9:G32" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3004,12 +3004,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Milestone description" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Category" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Assigned to" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progress" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Start" dataDxfId="37" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Days" dataDxfId="36" dataCellStyle="Comma [0]"/>
+    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Milestone description" dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Category" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Assigned to" dataDxfId="71"/>
+    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progress" dataDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Start" dataDxfId="69" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Days" dataDxfId="68" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="ToDoList" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3021,7 +3021,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EDB95CA-98FE-4198-8801-690B9B480FDF}" name="Milestones435" displayName="Milestones435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EDB95CA-98FE-4198-8801-690B9B480FDF}" name="Milestones435" displayName="Milestones435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="67">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3031,9 +3031,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6E47A83D-ACD7-4EB6-9B84-5195E813945E}" name="Milestone description" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{529EEF64-D037-4ACF-8CA4-0C10FE2D1FBB}" name="Category" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{711D01BA-2785-403A-9636-CCC7E2ADA584}" name="Assigned to" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{6E47A83D-ACD7-4EB6-9B84-5195E813945E}" name="Milestone description" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{529EEF64-D037-4ACF-8CA4-0C10FE2D1FBB}" name="Category" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{711D01BA-2785-403A-9636-CCC7E2ADA584}" name="Assigned to" dataDxfId="64"/>
     <tableColumn id="4" xr3:uid="{62B00BEF-16BE-4692-B5E2-F287F680F2C1}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{D6D72902-F68F-4E59-A714-AFFF520C647A}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{93E698DE-286F-49ED-AA20-D0C843671DE8}" name="Days" dataCellStyle="Comma [0]"/>
@@ -3048,7 +3048,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Milestones43524" displayName="Milestones43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Milestones43524" displayName="Milestones43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="63">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3058,9 +3058,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Milestone description" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Category" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{DF1A764E-7050-4528-B7F9-B6AB99372146}" name="Assigned to" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Milestone description" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Category" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{DF1A764E-7050-4528-B7F9-B6AB99372146}" name="Assigned to" dataDxfId="60"/>
     <tableColumn id="4" xr3:uid="{47C54592-75B0-4C70-BBF8-0F40483670E9}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{663FB5E0-7616-4EA5-B56A-FF069E2E07D7}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{3B766962-C06F-4E12-BE91-12AB93439874}" name="Days" dataCellStyle="Comma [0]"/>
@@ -3510,10 +3510,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BP42"/>
+  <dimension ref="A1:BP34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="F30" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3525,7 +3525,7 @@
     <col min="5" max="5" width="15.6640625" style="12" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" style="12" customWidth="1"/>
     <col min="9" max="64" width="3.5546875" style="12" customWidth="1"/>
     <col min="65" max="65" width="2.6640625" style="12" customWidth="1"/>
     <col min="66" max="16384" width="8.88671875" style="12"/>
@@ -3833,7 +3833,7 @@
       <c r="H6" s="84"/>
       <c r="I6" s="109" t="str">
         <f ca="1">TEXT(I7,"mmmm")</f>
-        <v>April</v>
+        <v>February</v>
       </c>
       <c r="J6" s="109"/>
       <c r="K6" s="109"/>
@@ -3843,7 +3843,7 @@
       <c r="O6" s="109"/>
       <c r="P6" s="109" t="str">
         <f ca="1">IF(TEXT(P7,"mmmm")=I6,"",TEXT(P7,"mmmm"))</f>
-        <v/>
+        <v>March</v>
       </c>
       <c r="Q6" s="109"/>
       <c r="R6" s="109"/>
@@ -3873,7 +3873,7 @@
       <c r="AJ6" s="109"/>
       <c r="AK6" s="109" t="str">
         <f ca="1">IF(OR(TEXT(AK7,"mmmm")=AD6,TEXT(AK7,"mmmm")=W6,TEXT(AK7,"mmmm")=P6,TEXT(AK7,"mmmm")=I6),"",TEXT(AK7,"mmmm"))</f>
-        <v>May</v>
+        <v/>
       </c>
       <c r="AL6" s="109"/>
       <c r="AM6" s="109"/>
@@ -3883,7 +3883,7 @@
       <c r="AQ6" s="109"/>
       <c r="AR6" s="109" t="str">
         <f ca="1">IF(OR(TEXT(AR7,"mmmm")=AK6,TEXT(AR7,"mmmm")=AD6,TEXT(AR7,"mmmm")=W6,TEXT(AR7,"mmmm")=P6),"",TEXT(AR7,"mmmm"))</f>
-        <v/>
+        <v>April</v>
       </c>
       <c r="AS6" s="109"/>
       <c r="AT6" s="109"/>
@@ -3919,7 +3919,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="93">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="D7" s="83"/>
       <c r="E7" s="84"/>
@@ -3928,227 +3928,227 @@
       <c r="H7" s="94"/>
       <c r="I7" s="116">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44660</v>
+        <v>44620</v>
       </c>
       <c r="J7" s="117">
         <f ca="1">I7+1</f>
-        <v>44661</v>
+        <v>44621</v>
       </c>
       <c r="K7" s="117">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44662</v>
+        <v>44622</v>
       </c>
       <c r="L7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44663</v>
+        <v>44623</v>
       </c>
       <c r="M7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44664</v>
+        <v>44624</v>
       </c>
       <c r="N7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44665</v>
+        <v>44625</v>
       </c>
       <c r="O7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44666</v>
+        <v>44626</v>
       </c>
       <c r="P7" s="117">
         <f ca="1">O7+1</f>
-        <v>44667</v>
+        <v>44627</v>
       </c>
       <c r="Q7" s="117">
         <f ca="1">P7+1</f>
-        <v>44668</v>
+        <v>44628</v>
       </c>
       <c r="R7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44669</v>
+        <v>44629</v>
       </c>
       <c r="S7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44670</v>
+        <v>44630</v>
       </c>
       <c r="T7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44671</v>
+        <v>44631</v>
       </c>
       <c r="U7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44672</v>
+        <v>44632</v>
       </c>
       <c r="V7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44673</v>
+        <v>44633</v>
       </c>
       <c r="W7" s="117">
         <f ca="1">V7+1</f>
-        <v>44674</v>
+        <v>44634</v>
       </c>
       <c r="X7" s="117">
         <f ca="1">W7+1</f>
-        <v>44675</v>
+        <v>44635</v>
       </c>
       <c r="Y7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44676</v>
+        <v>44636</v>
       </c>
       <c r="Z7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44677</v>
+        <v>44637</v>
       </c>
       <c r="AA7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44678</v>
+        <v>44638</v>
       </c>
       <c r="AB7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44679</v>
+        <v>44639</v>
       </c>
       <c r="AC7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44640</v>
       </c>
       <c r="AD7" s="117">
         <f ca="1">AC7+1</f>
-        <v>44681</v>
+        <v>44641</v>
       </c>
       <c r="AE7" s="117">
         <f ca="1">AD7+1</f>
-        <v>44682</v>
+        <v>44642</v>
       </c>
       <c r="AF7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44683</v>
+        <v>44643</v>
       </c>
       <c r="AG7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44684</v>
+        <v>44644</v>
       </c>
       <c r="AH7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44685</v>
+        <v>44645</v>
       </c>
       <c r="AI7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44686</v>
+        <v>44646</v>
       </c>
       <c r="AJ7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44687</v>
+        <v>44647</v>
       </c>
       <c r="AK7" s="117">
         <f ca="1">AJ7+1</f>
-        <v>44688</v>
+        <v>44648</v>
       </c>
       <c r="AL7" s="117">
         <f ca="1">AK7+1</f>
-        <v>44689</v>
+        <v>44649</v>
       </c>
       <c r="AM7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44690</v>
+        <v>44650</v>
       </c>
       <c r="AN7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44691</v>
+        <v>44651</v>
       </c>
       <c r="AO7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44692</v>
+        <v>44652</v>
       </c>
       <c r="AP7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44693</v>
+        <v>44653</v>
       </c>
       <c r="AQ7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44694</v>
+        <v>44654</v>
       </c>
       <c r="AR7" s="117">
         <f ca="1">AQ7+1</f>
-        <v>44695</v>
+        <v>44655</v>
       </c>
       <c r="AS7" s="117">
         <f ca="1">AR7+1</f>
-        <v>44696</v>
+        <v>44656</v>
       </c>
       <c r="AT7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44697</v>
+        <v>44657</v>
       </c>
       <c r="AU7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44698</v>
+        <v>44658</v>
       </c>
       <c r="AV7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44699</v>
+        <v>44659</v>
       </c>
       <c r="AW7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44700</v>
+        <v>44660</v>
       </c>
       <c r="AX7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44701</v>
+        <v>44661</v>
       </c>
       <c r="AY7" s="117">
         <f ca="1">AX7+1</f>
-        <v>44702</v>
+        <v>44662</v>
       </c>
       <c r="AZ7" s="117">
         <f ca="1">AY7+1</f>
-        <v>44703</v>
+        <v>44663</v>
       </c>
       <c r="BA7" s="117">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44704</v>
+        <v>44664</v>
       </c>
       <c r="BB7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44705</v>
+        <v>44665</v>
       </c>
       <c r="BC7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44706</v>
+        <v>44666</v>
       </c>
       <c r="BD7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44707</v>
+        <v>44667</v>
       </c>
       <c r="BE7" s="118">
         <f t="shared" ca="1" si="1"/>
-        <v>44708</v>
+        <v>44668</v>
       </c>
       <c r="BF7" s="117">
         <f ca="1">BE7+1</f>
-        <v>44709</v>
+        <v>44669</v>
       </c>
       <c r="BG7" s="117">
         <f ca="1">BF7+1</f>
-        <v>44710</v>
+        <v>44670</v>
       </c>
       <c r="BH7" s="117">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44711</v>
+        <v>44671</v>
       </c>
       <c r="BI7" s="117">
         <f t="shared" ca="1" si="2"/>
-        <v>44712</v>
+        <v>44672</v>
       </c>
       <c r="BJ7" s="117">
         <f t="shared" ca="1" si="2"/>
-        <v>44713</v>
+        <v>44673</v>
       </c>
       <c r="BK7" s="117">
         <f t="shared" ca="1" si="2"/>
-        <v>44714</v>
+        <v>44674</v>
       </c>
       <c r="BL7" s="118">
         <f t="shared" ca="1" si="2"/>
-        <v>44715</v>
+        <v>44675</v>
       </c>
       <c r="BM7" s="99"/>
     </row>
@@ -4242,15 +4242,15 @@
       <c r="H9" s="105"/>
       <c r="I9" s="124" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="J9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="K9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="L9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4258,27 +4258,27 @@
       </c>
       <c r="M9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="N9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="O9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="P9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="Q9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="R9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="S9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4286,27 +4286,27 @@
       </c>
       <c r="T9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="U9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="V9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="W9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="X9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="Y9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="Z9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4314,27 +4314,27 @@
       </c>
       <c r="AA9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="AB9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AC9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AD9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AE9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AF9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="AG9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4342,27 +4342,27 @@
       </c>
       <c r="AH9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="AI9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AJ9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AK9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AL9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AM9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="AN9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4370,27 +4370,27 @@
       </c>
       <c r="AO9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="AP9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AQ9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AR9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AS9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AT9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="AU9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4398,27 +4398,27 @@
       </c>
       <c r="AV9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="AW9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AX9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AY9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AZ9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BA9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="BB9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4426,27 +4426,27 @@
       </c>
       <c r="BC9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="BD9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="BE9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BF9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BG9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BH9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="BI9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4454,15 +4454,15 @@
       </c>
       <c r="BJ9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="BK9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="BL9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BM9" s="99"/>
     </row>
@@ -4773,7 +4773,7 @@
     <row r="12" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="67" t="s">
         <v>8</v>
@@ -4795,89 +4795,89 @@
         <f ca="1">IF(AND($C12="Goal",I$7&gt;=$F12,I$7&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",I$7&gt;=$F12,I$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
-      <c r="J12" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="K12" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="L12" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="M12" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="N12" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="O12" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="P12" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="Q12" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="R12" s="107" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="S12" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="T12" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="U12" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="V12" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="W12" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="X12" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="Y12" s="29" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="Z12" s="29" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AA12" s="29" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AB12" s="29" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AC12" s="29" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AD12" s="29" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+      <c r="J12" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K12" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L12" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M12" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N12" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="O12" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P12" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Q12" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="R12" s="107">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="S12" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="T12" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="U12" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="V12" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="W12" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="X12" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Y12" s="29">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Z12" s="29">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AA12" s="29">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AB12" s="29">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AC12" s="29">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AD12" s="29">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="AE12" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5020,7 +5020,7 @@
     <row r="13" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="67" t="s">
         <v>14</v>
@@ -5761,13 +5761,13 @@
     <row r="16" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="67" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="68">
         <v>1</v>
@@ -5841,7 +5841,7 @@
     <row r="17" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="71" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C17" s="67" t="s">
         <v>13</v>
@@ -6088,13 +6088,13 @@
     <row r="18" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="67" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" s="68">
         <v>1</v>
@@ -6191,9 +6191,9 @@
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AD18" s="29" t="str">
+      <c r="AD18" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AE18" s="29" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6336,7 +6336,7 @@
     <row r="19" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="134" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="67"/>
       <c r="D19" s="67"/>
@@ -6573,13 +6573,13 @@
     <row r="20" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="67" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" s="68">
         <v>1</v>
@@ -6592,17 +6592,17 @@
         <v>21</v>
       </c>
       <c r="H20" s="103"/>
-      <c r="I20" s="29">
+      <c r="I20" s="29" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="J20" s="29">
+        <v/>
+      </c>
+      <c r="J20" s="29" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="K20" s="29">
+        <v/>
+      </c>
+      <c r="K20" s="29" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="L20" s="29" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -6680,89 +6680,89 @@
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AE20" s="29" t="str">
+      <c r="AE20" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AF20" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AF20" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AG20" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AG20" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AH20" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AH20" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AI20" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AI20" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AJ20" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AJ20" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AK20" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AK20" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AL20" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AL20" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AM20" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AM20" s="29">
         <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AN20" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AN20" s="29">
         <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AO20" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AO20" s="29">
         <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AP20" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AP20" s="29">
         <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AQ20" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AQ20" s="29">
         <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AR20" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AR20" s="29">
         <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AS20" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AS20" s="29">
         <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AT20" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AT20" s="29">
         <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AU20" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AU20" s="29">
         <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AV20" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AV20" s="29">
         <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AW20" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AW20" s="29">
         <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="AX20" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AX20" s="29">
         <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="AY20" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AY20" s="29">
         <f t="shared" ca="1" si="17"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AZ20" s="29" t="str">
         <f t="shared" ca="1" si="17"/>
@@ -6821,13 +6821,13 @@
     <row r="21" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="67" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="68">
         <v>1</v>
@@ -7069,7 +7069,7 @@
     <row r="22" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="67" t="s">
         <v>14</v>
@@ -7317,7 +7317,7 @@
     <row r="23" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="67" t="s">
         <v>13</v>
@@ -7565,13 +7565,13 @@
     <row r="24" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="67" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" s="68">
         <v>1</v>
@@ -7645,13 +7645,13 @@
     <row r="25" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="67" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" s="68">
         <v>1</v>
@@ -7676,9 +7676,9 @@
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
-      <c r="L25" s="29">
+      <c r="L25" s="29" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="M25" s="29" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -7836,9 +7836,9 @@
         <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
-      <c r="AZ25" s="29" t="str">
+      <c r="AZ25" s="29">
         <f t="shared" ca="1" si="23"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="BA25" s="29" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -7893,7 +7893,7 @@
     <row r="26" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="67"/>
       <c r="D26" s="67"/>
@@ -8130,13 +8130,13 @@
     <row r="27" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="71" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="67" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" s="68">
         <v>1</v>
@@ -8245,117 +8245,117 @@
         <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
-      <c r="AG27" s="29">
+      <c r="AG27" s="29" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>2</v>
-      </c>
-      <c r="AH27" s="29">
+        <v/>
+      </c>
+      <c r="AH27" s="29" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>2</v>
-      </c>
-      <c r="AI27" s="29">
+        <v/>
+      </c>
+      <c r="AI27" s="29" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>2</v>
-      </c>
-      <c r="AJ27" s="29">
+        <v/>
+      </c>
+      <c r="AJ27" s="29" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>2</v>
-      </c>
-      <c r="AK27" s="29">
+        <v/>
+      </c>
+      <c r="AK27" s="29" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>2</v>
-      </c>
-      <c r="AL27" s="29">
+        <v/>
+      </c>
+      <c r="AL27" s="29" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>2</v>
-      </c>
-      <c r="AM27" s="29">
+        <v/>
+      </c>
+      <c r="AM27" s="29" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>2</v>
-      </c>
-      <c r="AN27" s="29">
+        <v/>
+      </c>
+      <c r="AN27" s="29" t="str">
         <f ca="1">IF(AND($C27="Goal",AN$7&gt;=$F27,AN$7&lt;=$F27+$G27-1),2,IF(AND(F31="Milestone",AN$7&gt;=$F27,AN$7&lt;=$F27+$G27-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AO27" s="29">
+        <v/>
+      </c>
+      <c r="AO27" s="29" t="str">
         <f t="shared" ref="AO27:AX30" ca="1" si="28">IF(AND($C27="Goal",AO$7&gt;=$F27,AO$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AO$7&gt;=$F27,AO$7&lt;=$F27+$G27-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AP27" s="29">
+        <v/>
+      </c>
+      <c r="AP27" s="29" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="AQ27" s="29">
+        <v/>
+      </c>
+      <c r="AQ27" s="29" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="AR27" s="29">
+        <v/>
+      </c>
+      <c r="AR27" s="29" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="AS27" s="29">
+        <v/>
+      </c>
+      <c r="AS27" s="29" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="AT27" s="29">
+        <v/>
+      </c>
+      <c r="AT27" s="29" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="AU27" s="29">
+        <v/>
+      </c>
+      <c r="AU27" s="29" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="AV27" s="29">
+        <v/>
+      </c>
+      <c r="AV27" s="29" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="AW27" s="29">
+        <v/>
+      </c>
+      <c r="AW27" s="29" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="AX27" s="29">
+        <v/>
+      </c>
+      <c r="AX27" s="29" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="AY27" s="29">
+        <v/>
+      </c>
+      <c r="AY27" s="29" t="str">
         <f t="shared" ref="AY27:BL30" ca="1" si="29">IF(AND($C27="Goal",AY$7&gt;=$F27,AY$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AY$7&gt;=$F27,AY$7&lt;=$F27+$G27-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AZ27" s="29">
+        <v/>
+      </c>
+      <c r="AZ27" s="29" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="BA27" s="29">
+        <v/>
+      </c>
+      <c r="BA27" s="29" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="BB27" s="29">
+        <v/>
+      </c>
+      <c r="BB27" s="29" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="BC27" s="29">
+        <v/>
+      </c>
+      <c r="BC27" s="29" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="BD27" s="29">
+        <v/>
+      </c>
+      <c r="BD27" s="29" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="BE27" s="29">
+        <v/>
+      </c>
+      <c r="BE27" s="29" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="BF27" s="29">
+        <v/>
+      </c>
+      <c r="BF27" s="29" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="BG27" s="29">
+        <v/>
+      </c>
+      <c r="BG27" s="29" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="BH27" s="29">
+        <v/>
+      </c>
+      <c r="BH27" s="29" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="BI27" s="29" t="str">
         <f t="shared" ca="1" si="29"/>
@@ -8378,13 +8378,13 @@
     <row r="28" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="71" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="67" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28" s="68">
         <v>1</v>
@@ -8626,7 +8626,7 @@
     <row r="29" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="67" t="s">
         <v>14</v>
@@ -8638,8 +8638,8 @@
         <v>1</v>
       </c>
       <c r="F29" s="69">
-        <f>F28+0</f>
-        <v>44684</v>
+        <f>F28+7</f>
+        <v>44691</v>
       </c>
       <c r="G29" s="70">
         <v>12</v>
@@ -8874,7 +8874,7 @@
     <row r="30" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="67" t="s">
         <v>15</v>
@@ -8886,7 +8886,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="69">
-        <f>F29+21</f>
+        <f>F27+21</f>
         <v>44705</v>
       </c>
       <c r="G30" s="70">
@@ -9122,20 +9122,20 @@
     <row r="31" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="67" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31" s="68">
         <v>1</v>
       </c>
       <c r="F31" s="69">
-        <f>F30+0</f>
-        <v>44705</v>
+        <f>F27+14</f>
+        <v>44698</v>
       </c>
       <c r="G31" s="70">
         <v>1</v>
@@ -9202,13 +9202,13 @@
     <row r="32" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="67" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E32" s="68">
         <v>1</v>
@@ -9222,7 +9222,7 @@
       </c>
       <c r="H32" s="103"/>
       <c r="I32" s="29" t="str">
-        <f t="shared" ref="I32:R39" ca="1" si="30">IF(AND($C32="Goal",I$7&gt;=$F32,I$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",I$7&gt;=$F32,I$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ref="I32:R32" ca="1" si="30">IF(AND($C32="Goal",I$7&gt;=$F32,I$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",I$7&gt;=$F32,I$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="J32" s="29" t="str">
@@ -9262,7 +9262,7 @@
         <v/>
       </c>
       <c r="S32" s="29" t="str">
-        <f t="shared" ref="S32:AB39" ca="1" si="31">IF(AND($C32="Goal",S$7&gt;=$F32,S$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",S$7&gt;=$F32,S$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ref="S32:AB32" ca="1" si="31">IF(AND($C32="Goal",S$7&gt;=$F32,S$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",S$7&gt;=$F32,S$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="T32" s="29" t="str">
@@ -9302,7 +9302,7 @@
         <v/>
       </c>
       <c r="AC32" s="29" t="str">
-        <f t="shared" ref="AC32:AL39" ca="1" si="32">IF(AND($C32="Goal",AC$7&gt;=$F32,AC$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AC$7&gt;=$F32,AC$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ref="AC32:AL32" ca="1" si="32">IF(AND($C32="Goal",AC$7&gt;=$F32,AC$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AC$7&gt;=$F32,AC$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AD32" s="29" t="str">
@@ -9342,7 +9342,7 @@
         <v/>
       </c>
       <c r="AM32" s="29" t="str">
-        <f t="shared" ref="AM32:AV39" ca="1" si="33">IF(AND($C32="Goal",AM$7&gt;=$F32,AM$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AM$7&gt;=$F32,AM$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ref="AM32:AV32" ca="1" si="33">IF(AND($C32="Goal",AM$7&gt;=$F32,AM$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AM$7&gt;=$F32,AM$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AN32" s="29" t="str">
@@ -9382,7 +9382,7 @@
         <v/>
       </c>
       <c r="AW32" s="29" t="str">
-        <f t="shared" ref="AW32:BF39" ca="1" si="34">IF(AND($C32="Goal",AW$7&gt;=$F32,AW$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AW$7&gt;=$F32,AW$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ref="AW32:BF32" ca="1" si="34">IF(AND($C32="Goal",AW$7&gt;=$F32,AW$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AW$7&gt;=$F32,AW$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AX32" s="29" t="str">
@@ -9422,12 +9422,12 @@
         <v/>
       </c>
       <c r="BG32" s="29" t="str">
-        <f t="shared" ref="BG32:BL39" ca="1" si="35">IF(AND($C32="Goal",BG$7&gt;=$F32,BG$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BG$7&gt;=$F32,BG$7&lt;=$F32+$G32-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BH32" s="29">
+        <f t="shared" ref="BG32:BL32" ca="1" si="35">IF(AND($C32="Goal",BG$7&gt;=$F32,BG$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BG$7&gt;=$F32,BG$7&lt;=$F32+$G32-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BH32" s="29" t="str">
         <f t="shared" ca="1" si="35"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="BI32" s="29" t="str">
         <f t="shared" ca="1" si="35"/>
@@ -9447,1756 +9447,13 @@
       </c>
       <c r="BM32" s="21"/>
     </row>
-    <row r="33" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="134" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="J33" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="K33" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="L33" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="M33" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="N33" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="O33" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="P33" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="Q33" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="R33" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="S33" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="T33" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="U33" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="V33" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="W33" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="X33" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="Y33" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="Z33" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AA33" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AB33" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AC33" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AD33" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AE33" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AF33" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AG33" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AH33" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AI33" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AJ33" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AK33" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AL33" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AM33" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AN33" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AO33" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AP33" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AQ33" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AR33" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AS33" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AT33" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AU33" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AV33" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AW33" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AX33" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AY33" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AZ33" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BA33" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BB33" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BC33" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BD33" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BE33" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BF33" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BG33" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BH33" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BI33" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BJ33" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BK33" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BL33" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BM33" s="21"/>
+    <row r="33" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="4"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="69">
-        <f>F30+3</f>
-        <v>44708</v>
-      </c>
-      <c r="G34" s="70">
-        <v>0</v>
-      </c>
-      <c r="H34" s="103"/>
-      <c r="I34" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="J34" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="K34" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="L34" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="M34" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="N34" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="O34" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="P34" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="Q34" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="R34" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="S34" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="T34" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="U34" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="V34" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="W34" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="X34" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="Y34" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="Z34" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AA34" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AB34" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AC34" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AD34" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AE34" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AF34" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AG34" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AH34" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AI34" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AJ34" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AK34" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AL34" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AM34" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AN34" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AO34" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AP34" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AQ34" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AR34" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AS34" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AT34" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AU34" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AV34" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AW34" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AX34" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AY34" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AZ34" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BA34" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BB34" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BC34" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BD34" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BE34" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BF34" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BG34" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BH34" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BI34" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BJ34" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BK34" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BL34" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BM34" s="21"/>
-    </row>
-    <row r="35" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="69">
-        <f>F34+14</f>
-        <v>44722</v>
-      </c>
-      <c r="G35" s="70">
-        <v>0</v>
-      </c>
-      <c r="H35" s="103"/>
-      <c r="I35" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="J35" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="K35" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="L35" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="M35" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="N35" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="O35" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="P35" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="Q35" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="R35" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="S35" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="T35" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="U35" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="V35" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="W35" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="X35" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="Y35" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="Z35" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AA35" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AB35" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AC35" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AD35" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AE35" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AF35" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AG35" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AH35" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AI35" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AJ35" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AK35" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AL35" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AM35" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AN35" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AO35" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AP35" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AQ35" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AR35" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AS35" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AT35" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AU35" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AV35" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AW35" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AX35" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AY35" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AZ35" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BA35" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BB35" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BC35" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BD35" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BE35" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BF35" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BG35" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BH35" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BI35" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BJ35" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BK35" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BL35" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BM35" s="21"/>
-    </row>
-    <row r="36" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="67"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="69">
-        <f>F35+42</f>
-        <v>44764</v>
-      </c>
-      <c r="G36" s="70">
-        <v>0</v>
-      </c>
-      <c r="H36" s="103"/>
-      <c r="I36" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="J36" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="K36" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="L36" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="M36" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="N36" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="O36" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="P36" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="Q36" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="R36" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="S36" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="T36" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="U36" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="V36" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="W36" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="X36" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="Y36" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="Z36" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AA36" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AB36" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AC36" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AD36" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AE36" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AF36" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AG36" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AH36" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AI36" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AJ36" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AK36" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AL36" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AM36" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AN36" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AO36" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AP36" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AQ36" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AR36" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AS36" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AT36" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AU36" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AV36" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AW36" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AX36" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AY36" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AZ36" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BA36" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BB36" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BC36" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BD36" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BE36" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BF36" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BG36" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BH36" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BI36" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BJ36" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BK36" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BL36" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BM36" s="21"/>
-    </row>
-    <row r="37" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="103"/>
-      <c r="I37" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="J37" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="K37" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="L37" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="M37" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="N37" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="O37" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="P37" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="Q37" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="R37" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="S37" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="T37" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="U37" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="V37" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="W37" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="X37" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="Y37" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="Z37" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AA37" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AB37" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AC37" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AD37" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AE37" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AF37" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AG37" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AH37" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AI37" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AJ37" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AK37" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AL37" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AM37" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AN37" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AO37" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AP37" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AQ37" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AR37" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AS37" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AT37" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AU37" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AV37" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AW37" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AX37" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AY37" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AZ37" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BA37" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BB37" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BC37" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BD37" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BE37" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BF37" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BG37" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BH37" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BI37" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BJ37" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BK37" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BL37" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BM37" s="21"/>
-    </row>
-    <row r="38" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
-      <c r="B38" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="103"/>
-      <c r="I38" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="J38" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="K38" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="L38" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="M38" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="N38" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="O38" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="P38" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="Q38" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="R38" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="S38" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="T38" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="U38" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="V38" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="W38" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="X38" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="Y38" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="Z38" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AA38" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AB38" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AC38" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AD38" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AE38" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AF38" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AG38" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AH38" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AI38" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AJ38" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AK38" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AL38" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AM38" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AN38" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AO38" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AP38" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AQ38" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AR38" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AS38" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AT38" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AU38" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AV38" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AW38" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AX38" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AY38" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AZ38" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BA38" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BB38" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BC38" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BD38" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BE38" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BF38" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BG38" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BH38" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BI38" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BJ38" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BK38" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BL38" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BM38" s="21"/>
-    </row>
-    <row r="39" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="71"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="J39" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="K39" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="L39" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="M39" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="N39" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="O39" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="P39" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="Q39" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="R39" s="29" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="S39" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="T39" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="U39" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="V39" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="W39" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="X39" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="Y39" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="Z39" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AA39" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AB39" s="29" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AC39" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AD39" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AE39" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AF39" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AG39" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AH39" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AI39" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AJ39" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AK39" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AL39" s="29" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AM39" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AN39" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AO39" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AP39" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AQ39" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AR39" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AS39" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AT39" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AU39" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AV39" s="29" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AW39" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AX39" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AY39" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AZ39" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BA39" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BB39" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BC39" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BD39" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BE39" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BF39" s="29" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BG39" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BH39" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BI39" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BJ39" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BK39" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BL39" s="29" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BM39" s="106"/>
-    </row>
-    <row r="40" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="136" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="104"/>
-      <c r="J40" s="104"/>
-      <c r="K40" s="104"/>
-      <c r="L40" s="104"/>
-      <c r="M40" s="104"/>
-      <c r="N40" s="104"/>
-      <c r="O40" s="104"/>
-      <c r="P40" s="104"/>
-      <c r="Q40" s="104"/>
-      <c r="R40" s="104"/>
-      <c r="S40" s="104"/>
-      <c r="T40" s="104"/>
-      <c r="U40" s="104"/>
-      <c r="V40" s="104"/>
-      <c r="W40" s="104"/>
-      <c r="X40" s="104"/>
-      <c r="Y40" s="104"/>
-      <c r="Z40" s="104"/>
-      <c r="AA40" s="104"/>
-      <c r="AB40" s="104"/>
-      <c r="AC40" s="104"/>
-      <c r="AD40" s="104"/>
-      <c r="AE40" s="104"/>
-      <c r="AF40" s="104"/>
-      <c r="AG40" s="104"/>
-      <c r="AH40" s="104"/>
-      <c r="AI40" s="104"/>
-      <c r="AJ40" s="104"/>
-      <c r="AK40" s="104"/>
-      <c r="AL40" s="104"/>
-      <c r="AM40" s="104"/>
-      <c r="AN40" s="104"/>
-      <c r="AO40" s="104"/>
-      <c r="AP40" s="104"/>
-      <c r="AQ40" s="104"/>
-      <c r="AR40" s="104"/>
-      <c r="AS40" s="104"/>
-      <c r="AT40" s="104"/>
-      <c r="AU40" s="104"/>
-      <c r="AV40" s="104"/>
-      <c r="AW40" s="104"/>
-      <c r="AX40" s="104"/>
-      <c r="AY40" s="104"/>
-      <c r="AZ40" s="104"/>
-      <c r="BA40" s="104"/>
-      <c r="BB40" s="104"/>
-      <c r="BC40" s="104"/>
-      <c r="BD40" s="104"/>
-      <c r="BE40" s="104"/>
-      <c r="BF40" s="104"/>
-      <c r="BG40" s="104"/>
-      <c r="BH40" s="104"/>
-      <c r="BI40" s="104"/>
-      <c r="BJ40" s="104"/>
-      <c r="BK40" s="104"/>
-      <c r="BL40" s="104"/>
-      <c r="BM40" s="97"/>
-    </row>
-    <row r="41" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="4"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="5"/>
+    <row r="34" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -11209,7 +9466,7 @@
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="S4:V4"/>
   </mergeCells>
-  <conditionalFormatting sqref="E9:E17 E19:E23 E25:E30 E32:E40">
+  <conditionalFormatting sqref="E9:E17 E19:E23 E25:E30 E32">
     <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11223,58 +9480,41 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL17 I19:BL23 I25:BL30 I32:BL40">
-    <cfRule type="expression" dxfId="75" priority="25">
+  <conditionalFormatting sqref="I7:BL17 I19:BL23 I25:BL30 I32:BL32">
+    <cfRule type="expression" dxfId="59" priority="25">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="74" priority="28">
+    <cfRule type="expression" dxfId="58" priority="28">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="73" priority="27">
+    <cfRule type="expression" dxfId="57" priority="27">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="72" priority="26">
+    <cfRule type="expression" dxfId="56" priority="26">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:BL17 I19:BL23 I25:BL30 I32:BL39">
-    <cfRule type="expression" dxfId="71" priority="31" stopIfTrue="1">
+  <conditionalFormatting sqref="I10:BL17 I19:BL23 I25:BL30 I32:BL32">
+    <cfRule type="expression" dxfId="55" priority="31" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="32" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="33" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="34" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="35" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="66" priority="37" stopIfTrue="1">
-      <formula>AND(#REF!="Low Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="38" stopIfTrue="1">
-      <formula>AND(#REF!="High Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="39" stopIfTrue="1">
-      <formula>AND(#REF!="On Track",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="40" stopIfTrue="1">
-      <formula>AND(#REF!="Med Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="41" stopIfTrue="1">
-      <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
@@ -11292,24 +9532,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL18">
-    <cfRule type="expression" dxfId="61" priority="17">
+    <cfRule type="expression" dxfId="45" priority="17">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL18">
-    <cfRule type="expression" dxfId="60" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="20" stopIfTrue="1">
       <formula>AND($C18="Low Risk",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="21" stopIfTrue="1">
       <formula>AND($C18="High Risk",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="22" stopIfTrue="1">
       <formula>AND($C18="On Track",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="23" stopIfTrue="1">
       <formula>AND($C18="Med Risk",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="24" stopIfTrue="1">
       <formula>AND(LEN($C18)=0,I$7&gt;=$F18,I$7&lt;=$F18+$G18-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11328,24 +9568,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:BL24">
-    <cfRule type="expression" dxfId="55" priority="9">
+    <cfRule type="expression" dxfId="39" priority="9">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:BL24">
-    <cfRule type="expression" dxfId="54" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="11" stopIfTrue="1">
       <formula>AND($C24="Low Risk",I$7&gt;=$F24,I$7&lt;=$F24+$G24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="12" stopIfTrue="1">
       <formula>AND($C24="High Risk",I$7&gt;=$F24,I$7&lt;=$F24+$G24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="13" stopIfTrue="1">
       <formula>AND($C24="On Track",I$7&gt;=$F24,I$7&lt;=$F24+$G24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="14" stopIfTrue="1">
       <formula>AND($C24="Med Risk",I$7&gt;=$F24,I$7&lt;=$F24+$G24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="15" stopIfTrue="1">
       <formula>AND(LEN($C24)=0,I$7&gt;=$F24,I$7&lt;=$F24+$G24-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11364,32 +9604,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="49" priority="1">
+    <cfRule type="expression" dxfId="33" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="48" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="3" stopIfTrue="1">
       <formula>AND($C31="Low Risk",I$7&gt;=$F31,I$7&lt;=$F31+$G31-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="4" stopIfTrue="1">
       <formula>AND($C31="High Risk",I$7&gt;=$F31,I$7&lt;=$F31+$G31-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="5" stopIfTrue="1">
       <formula>AND($C31="On Track",I$7&gt;=$F31,I$7&lt;=$F31+$G31-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="6" stopIfTrue="1">
       <formula>AND($C31="Med Risk",I$7&gt;=$F31,I$7&lt;=$F31+$G31-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="7" stopIfTrue="1">
       <formula>AND(LEN($C31)=0,I$7&gt;=$F31,I$7&lt;=$F31+$G31-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="13">
+  <dataValidations count="11">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="C7" xr:uid="{662A47A0-7258-440E-8D71-BC54CBC9C651}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C12:C39" xr:uid="{12A8278F-D51D-4B98-A311-DB5FCD18D214}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C12:C32" xr:uid="{12A8278F-D51D-4B98-A311-DB5FCD18D214}">
       <formula1>"Goal,Milestone,On Track, Low Risk, Med Risk, High Risk"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C11" xr:uid="{218D9212-09C8-4DA2-9014-64503951B170}">
@@ -11403,8 +9643,6 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A scrollbar is in cells I8 through BL8. _x000a_To jump forward or backward in the timeline, enter a value of 0 or higher in cell C7._x000a_A value of 0 takes you to the beginning of the chart." sqref="A8" xr:uid="{737D7247-B514-41B2-94CC-2F538E17DE66}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row contains headers for the project schedule.  B9 through G9 contains schedule information.  Cells I9 through BL9 contain the first letter of each day of the week for the date above that heading._x000a_All project timeline charting is auto generated." sqref="A9" xr:uid="{6AB925DC-9BC9-4EC3-A848-25121289EECD}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Project information starting in cell B11 through cell G11. _x000a_Enter Milestone Description, select a Category, assign someone to the task, and enter the progress, start date, and number of days for the task to start charting._x000a_" sqref="A11" xr:uid="{77315CCB-C571-42B0-8983-9C17BB04F75F}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Gantt milestone data. DO NOT enter anything in this row. _x000a_To add more items, insert new rows above this one._x000a_" sqref="A40" xr:uid="{659FD5CB-B62B-4854-B8A9-29F1F70930AC}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an empty row" sqref="A39" xr:uid="{60F6BB2A-523D-41BA-B324-85E19FB9FF7E}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -11461,7 +9699,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E9:E17 E19:E23 E25:E30 E32:E40</xm:sqref>
+          <xm:sqref>E9:E17 E19:E23 E25:E30 E32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3F192945-8740-4BD7-9F9C-580C3F502630}">
@@ -11509,25 +9747,6 @@
           <xm:sqref>E31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="36" id="{A1EFF969-3CBB-4DB2-A4C9-47B01FE32C86}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I40:BL40</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="19" id="{B2541656-04BA-42B9-B264-A1E5B0B5D934}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -11545,25 +9764,6 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>I18:BL18</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="49" id="{39412BF5-D1E8-4731-95F6-6B0C252D35F8}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I10:BL17 I19:BL23 I25:BL30 I32:BL39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="16" id="{E363992E-1C90-4B27-B8B5-3CD196FFA938}">
@@ -11602,6 +9802,25 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>I31:BL31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="149" id="{39412BF5-D1E8-4731-95F6-6B0C252D35F8}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I10:BL17 I19:BL23 I25:BL30 I32:BL32</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -18796,56 +17015,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="35" priority="1">
+    <cfRule type="expression" dxfId="27" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="34" priority="4">
+    <cfRule type="expression" dxfId="26" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="33" priority="3">
+    <cfRule type="expression" dxfId="25" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="32" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="31" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="7" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="8" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="9" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="10" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="26" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="13" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="14" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26158,56 +24377,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="8" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="13" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="14" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="15" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26334,25 +24553,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22a266b9fa9a230c5a512669d8b298c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eddc33fff6b14141ee5c74a0d29ea6a1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -26628,6 +24828,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -26638,18 +24857,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75C87518-DD8E-42CD-8DAC-291A323E849B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26670,6 +24877,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
   <ds:schemaRefs>

--- a/Documentation/Agile Gantt chartProjectFinal.xlsx
+++ b/Documentation/Agile Gantt chartProjectFinal.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{684D94CC-A0DE-4247-869E-2F69DEFAB9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D8E7939-DD5D-4F3E-86AF-12865DB85DAD}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{684D94CC-A0DE-4247-869E-2F69DEFAB9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1650A066-8D07-41B2-81B9-57C90560F8C7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,7 +511,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -592,6 +592,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1245,9 +1251,6 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1284,6 +1287,9 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Accent3" xfId="11" builtinId="37"/>
@@ -1299,760 +1305,36 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="89">
+  <dxfs count="84">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
         <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -2323,36 +1605,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
         <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -2364,6 +1616,251 @@
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2479,6 +1976,406 @@
           <bgColor theme="1" tint="0.249977111117893"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -2651,21 +2548,21 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="4" xr9:uid="{4904D139-63E4-4221-B7C9-C6C5B7A50FAF}">
-      <tableStyleElement type="wholeTable" dxfId="88"/>
-      <tableStyleElement type="headerRow" dxfId="87"/>
-      <tableStyleElement type="firstRowStripe" dxfId="86"/>
-      <tableStyleElement type="secondRowStripe" dxfId="85"/>
+      <tableStyleElement type="wholeTable" dxfId="83"/>
+      <tableStyleElement type="headerRow" dxfId="82"/>
+      <tableStyleElement type="firstRowStripe" dxfId="81"/>
+      <tableStyleElement type="secondRowStripe" dxfId="80"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="84"/>
-      <tableStyleElement type="headerRow" dxfId="83"/>
-      <tableStyleElement type="totalRow" dxfId="82"/>
-      <tableStyleElement type="firstColumn" dxfId="81"/>
-      <tableStyleElement type="lastColumn" dxfId="80"/>
-      <tableStyleElement type="firstRowStripe" dxfId="79"/>
-      <tableStyleElement type="secondRowStripe" dxfId="78"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="77"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="76"/>
+      <tableStyleElement type="wholeTable" dxfId="79"/>
+      <tableStyleElement type="headerRow" dxfId="78"/>
+      <tableStyleElement type="totalRow" dxfId="77"/>
+      <tableStyleElement type="firstColumn" dxfId="76"/>
+      <tableStyleElement type="lastColumn" dxfId="75"/>
+      <tableStyleElement type="firstRowStripe" dxfId="74"/>
+      <tableStyleElement type="secondRowStripe" dxfId="73"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="72"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="71"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2994,7 +2891,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:G32" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:G32" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="B9:G32" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3004,12 +2901,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Milestone description" dataDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Category" dataDxfId="72"/>
-    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Assigned to" dataDxfId="71"/>
-    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progress" dataDxfId="70"/>
-    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Start" dataDxfId="69" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Days" dataDxfId="68" dataCellStyle="Comma [0]"/>
+    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Milestone description" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Category" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Assigned to" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progress" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Start" dataDxfId="37" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Days" dataDxfId="36" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="ToDoList" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3021,7 +2918,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EDB95CA-98FE-4198-8801-690B9B480FDF}" name="Milestones435" displayName="Milestones435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EDB95CA-98FE-4198-8801-690B9B480FDF}" name="Milestones435" displayName="Milestones435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3031,9 +2928,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6E47A83D-ACD7-4EB6-9B84-5195E813945E}" name="Milestone description" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{529EEF64-D037-4ACF-8CA4-0C10FE2D1FBB}" name="Category" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{711D01BA-2785-403A-9636-CCC7E2ADA584}" name="Assigned to" dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{6E47A83D-ACD7-4EB6-9B84-5195E813945E}" name="Milestone description" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{529EEF64-D037-4ACF-8CA4-0C10FE2D1FBB}" name="Category" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{711D01BA-2785-403A-9636-CCC7E2ADA584}" name="Assigned to" dataDxfId="18"/>
     <tableColumn id="4" xr3:uid="{62B00BEF-16BE-4692-B5E2-F287F680F2C1}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{D6D72902-F68F-4E59-A714-AFFF520C647A}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{93E698DE-286F-49ED-AA20-D0C843671DE8}" name="Days" dataCellStyle="Comma [0]"/>
@@ -3048,7 +2945,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Milestones43524" displayName="Milestones43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Milestones43524" displayName="Milestones43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3058,9 +2955,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Milestone description" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Category" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{DF1A764E-7050-4528-B7F9-B6AB99372146}" name="Assigned to" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Milestone description" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Category" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{DF1A764E-7050-4528-B7F9-B6AB99372146}" name="Assigned to" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{47C54592-75B0-4C70-BBF8-0F40483670E9}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{663FB5E0-7616-4EA5-B56A-FF069E2E07D7}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{3B766962-C06F-4E12-BE91-12AB93439874}" name="Days" dataCellStyle="Comma [0]"/>
@@ -3513,7 +3410,7 @@
   <dimension ref="A1:BP34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3534,27 +3431,27 @@
     <row r="1" spans="1:68" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:68" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="148"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="147"/>
+      <c r="T2" s="147"/>
       <c r="U2" s="76"/>
       <c r="V2" s="76"/>
       <c r="W2" s="76"/>
@@ -3681,26 +3578,26 @@
         <v>18</v>
       </c>
       <c r="H4" s="84"/>
-      <c r="I4" s="149" t="s">
+      <c r="I4" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
       <c r="M4" s="99"/>
-      <c r="N4" s="150" t="s">
+      <c r="N4" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="150"/>
-      <c r="P4" s="150"/>
-      <c r="Q4" s="150"/>
+      <c r="O4" s="149"/>
+      <c r="P4" s="149"/>
+      <c r="Q4" s="149"/>
       <c r="R4" s="99"/>
-      <c r="S4" s="151" t="s">
+      <c r="S4" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="151"/>
-      <c r="U4" s="151"/>
-      <c r="V4" s="151"/>
+      <c r="T4" s="150"/>
+      <c r="U4" s="150"/>
+      <c r="V4" s="150"/>
       <c r="W4" s="99"/>
       <c r="X4" s="144" t="s">
         <v>29</v>
@@ -9481,39 +9378,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL17 I19:BL23 I25:BL30 I32:BL32">
-    <cfRule type="expression" dxfId="59" priority="25">
+    <cfRule type="expression" dxfId="70" priority="25">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="58" priority="28">
+    <cfRule type="expression" dxfId="69" priority="28">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="57" priority="27">
+    <cfRule type="expression" dxfId="68" priority="27">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="56" priority="26">
+    <cfRule type="expression" dxfId="67" priority="26">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL17 I19:BL23 I25:BL30 I32:BL32">
-    <cfRule type="expression" dxfId="55" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="31" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="32" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="33" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="34" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="35" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9532,24 +9429,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL18">
-    <cfRule type="expression" dxfId="45" priority="17">
+    <cfRule type="expression" dxfId="61" priority="17">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL18">
-    <cfRule type="expression" dxfId="44" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="20" stopIfTrue="1">
       <formula>AND($C18="Low Risk",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="21" stopIfTrue="1">
       <formula>AND($C18="High Risk",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="22" stopIfTrue="1">
       <formula>AND($C18="On Track",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="23" stopIfTrue="1">
       <formula>AND($C18="Med Risk",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="24" stopIfTrue="1">
       <formula>AND(LEN($C18)=0,I$7&gt;=$F18,I$7&lt;=$F18+$G18-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9568,24 +9465,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:BL24">
-    <cfRule type="expression" dxfId="39" priority="9">
+    <cfRule type="expression" dxfId="55" priority="9">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:BL24">
-    <cfRule type="expression" dxfId="38" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="11" stopIfTrue="1">
       <formula>AND($C24="Low Risk",I$7&gt;=$F24,I$7&lt;=$F24+$G24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="12" stopIfTrue="1">
       <formula>AND($C24="High Risk",I$7&gt;=$F24,I$7&lt;=$F24+$G24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="13" stopIfTrue="1">
       <formula>AND($C24="On Track",I$7&gt;=$F24,I$7&lt;=$F24+$G24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="14" stopIfTrue="1">
       <formula>AND($C24="Med Risk",I$7&gt;=$F24,I$7&lt;=$F24+$G24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="15" stopIfTrue="1">
       <formula>AND(LEN($C24)=0,I$7&gt;=$F24,I$7&lt;=$F24+$G24-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9604,24 +9501,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="33" priority="1">
+    <cfRule type="expression" dxfId="49" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="32" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="3" stopIfTrue="1">
       <formula>AND($C31="Low Risk",I$7&gt;=$F31,I$7&lt;=$F31+$G31-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="4" stopIfTrue="1">
       <formula>AND($C31="High Risk",I$7&gt;=$F31,I$7&lt;=$F31+$G31-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="5" stopIfTrue="1">
       <formula>AND($C31="On Track",I$7&gt;=$F31,I$7&lt;=$F31+$G31-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="6" stopIfTrue="1">
       <formula>AND($C31="Med Risk",I$7&gt;=$F31,I$7&lt;=$F31+$G31-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="7" stopIfTrue="1">
       <formula>AND(LEN($C31)=0,I$7&gt;=$F31,I$7&lt;=$F31+$G31-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9855,27 +9752,27 @@
     <row r="1" spans="1:68" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:68" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="155"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="154"/>
+      <c r="S2" s="154"/>
+      <c r="T2" s="154"/>
       <c r="U2" s="23"/>
       <c r="V2" s="23"/>
       <c r="W2" s="23"/>
@@ -10002,26 +9899,26 @@
         <v>18</v>
       </c>
       <c r="H4" s="32"/>
-      <c r="I4" s="149" t="s">
+      <c r="I4" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
       <c r="M4" s="35"/>
-      <c r="N4" s="150" t="s">
+      <c r="N4" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="150"/>
-      <c r="P4" s="150"/>
-      <c r="Q4" s="150"/>
+      <c r="O4" s="149"/>
+      <c r="P4" s="149"/>
+      <c r="Q4" s="149"/>
       <c r="R4" s="35"/>
-      <c r="S4" s="151" t="s">
+      <c r="S4" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="151"/>
-      <c r="U4" s="151"/>
-      <c r="V4" s="151"/>
+      <c r="T4" s="150"/>
+      <c r="U4" s="150"/>
+      <c r="V4" s="150"/>
       <c r="W4" s="35"/>
       <c r="X4" s="144" t="s">
         <v>29</v>
@@ -10146,7 +10043,7 @@
       </c>
       <c r="C6" s="39" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones435[Start])=0,TODAY(),B11(Milestones435[Start])),TODAY())</f>
-        <v>44706</v>
+        <v>44710</v>
       </c>
       <c r="D6" s="60"/>
       <c r="E6" s="35"/>
@@ -10205,7 +10102,7 @@
       <c r="AQ6" s="112"/>
       <c r="AR6" s="112" t="str">
         <f ca="1">IF(OR(TEXT(AR7,"mmmm")=AK6,TEXT(AR7,"mmmm")=AD6,TEXT(AR7,"mmmm")=W6,TEXT(AR7,"mmmm")=P6),"",TEXT(AR7,"mmmm"))</f>
-        <v/>
+        <v>July</v>
       </c>
       <c r="AS6" s="112"/>
       <c r="AT6" s="112"/>
@@ -10215,7 +10112,7 @@
       <c r="AX6" s="112"/>
       <c r="AY6" s="112" t="str">
         <f ca="1">IF(OR(TEXT(AY7,"mmmm")=AR6,TEXT(AY7,"mmmm")=AK6,TEXT(AY7,"mmmm")=AD6,TEXT(AY7,"mmmm")=W6),"",TEXT(AY7,"mmmm"))</f>
-        <v>July</v>
+        <v/>
       </c>
       <c r="AZ6" s="112"/>
       <c r="BA6" s="112"/>
@@ -10250,227 +10147,227 @@
       <c r="H7" s="38"/>
       <c r="I7" s="114">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44707</v>
+        <v>44711</v>
       </c>
       <c r="J7" s="19">
         <f ca="1">I7+1</f>
-        <v>44708</v>
+        <v>44712</v>
       </c>
       <c r="K7" s="19">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44709</v>
+        <v>44713</v>
       </c>
       <c r="L7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44710</v>
+        <v>44714</v>
       </c>
       <c r="M7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44711</v>
+        <v>44715</v>
       </c>
       <c r="N7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44712</v>
+        <v>44716</v>
       </c>
       <c r="O7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44713</v>
+        <v>44717</v>
       </c>
       <c r="P7" s="19">
         <f ca="1">O7+1</f>
-        <v>44714</v>
+        <v>44718</v>
       </c>
       <c r="Q7" s="19">
         <f ca="1">P7+1</f>
-        <v>44715</v>
+        <v>44719</v>
       </c>
       <c r="R7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44716</v>
+        <v>44720</v>
       </c>
       <c r="S7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44717</v>
+        <v>44721</v>
       </c>
       <c r="T7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44718</v>
+        <v>44722</v>
       </c>
       <c r="U7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44719</v>
+        <v>44723</v>
       </c>
       <c r="V7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44720</v>
+        <v>44724</v>
       </c>
       <c r="W7" s="19">
         <f ca="1">V7+1</f>
-        <v>44721</v>
+        <v>44725</v>
       </c>
       <c r="X7" s="19">
         <f ca="1">W7+1</f>
-        <v>44722</v>
+        <v>44726</v>
       </c>
       <c r="Y7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44723</v>
+        <v>44727</v>
       </c>
       <c r="Z7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44724</v>
+        <v>44728</v>
       </c>
       <c r="AA7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44725</v>
+        <v>44729</v>
       </c>
       <c r="AB7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44726</v>
+        <v>44730</v>
       </c>
       <c r="AC7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44727</v>
+        <v>44731</v>
       </c>
       <c r="AD7" s="19">
         <f ca="1">AC7+1</f>
-        <v>44728</v>
+        <v>44732</v>
       </c>
       <c r="AE7" s="19">
         <f ca="1">AD7+1</f>
-        <v>44729</v>
+        <v>44733</v>
       </c>
       <c r="AF7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44730</v>
+        <v>44734</v>
       </c>
       <c r="AG7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44731</v>
+        <v>44735</v>
       </c>
       <c r="AH7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44732</v>
+        <v>44736</v>
       </c>
       <c r="AI7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44733</v>
+        <v>44737</v>
       </c>
       <c r="AJ7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44734</v>
+        <v>44738</v>
       </c>
       <c r="AK7" s="19">
         <f ca="1">AJ7+1</f>
-        <v>44735</v>
+        <v>44739</v>
       </c>
       <c r="AL7" s="19">
         <f ca="1">AK7+1</f>
-        <v>44736</v>
+        <v>44740</v>
       </c>
       <c r="AM7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44737</v>
+        <v>44741</v>
       </c>
       <c r="AN7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44738</v>
+        <v>44742</v>
       </c>
       <c r="AO7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44739</v>
+        <v>44743</v>
       </c>
       <c r="AP7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44740</v>
+        <v>44744</v>
       </c>
       <c r="AQ7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44741</v>
+        <v>44745</v>
       </c>
       <c r="AR7" s="19">
         <f ca="1">AQ7+1</f>
-        <v>44742</v>
+        <v>44746</v>
       </c>
       <c r="AS7" s="19">
         <f ca="1">AR7+1</f>
-        <v>44743</v>
+        <v>44747</v>
       </c>
       <c r="AT7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44744</v>
+        <v>44748</v>
       </c>
       <c r="AU7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44745</v>
+        <v>44749</v>
       </c>
       <c r="AV7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44746</v>
+        <v>44750</v>
       </c>
       <c r="AW7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44747</v>
+        <v>44751</v>
       </c>
       <c r="AX7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44748</v>
+        <v>44752</v>
       </c>
       <c r="AY7" s="19">
         <f ca="1">AX7+1</f>
-        <v>44749</v>
+        <v>44753</v>
       </c>
       <c r="AZ7" s="19">
         <f ca="1">AY7+1</f>
-        <v>44750</v>
+        <v>44754</v>
       </c>
       <c r="BA7" s="19">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44751</v>
+        <v>44755</v>
       </c>
       <c r="BB7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44752</v>
+        <v>44756</v>
       </c>
       <c r="BC7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44753</v>
+        <v>44757</v>
       </c>
       <c r="BD7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44754</v>
+        <v>44758</v>
       </c>
       <c r="BE7" s="72">
         <f t="shared" ca="1" si="1"/>
-        <v>44755</v>
+        <v>44759</v>
       </c>
       <c r="BF7" s="19">
         <f ca="1">BE7+1</f>
-        <v>44756</v>
+        <v>44760</v>
       </c>
       <c r="BG7" s="19">
         <f ca="1">BF7+1</f>
-        <v>44757</v>
+        <v>44761</v>
       </c>
       <c r="BH7" s="19">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44758</v>
+        <v>44762</v>
       </c>
       <c r="BI7" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>44759</v>
+        <v>44763</v>
       </c>
       <c r="BJ7" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>44760</v>
+        <v>44764</v>
       </c>
       <c r="BK7" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>44761</v>
+        <v>44765</v>
       </c>
       <c r="BL7" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>44762</v>
+        <v>44766</v>
       </c>
       <c r="BM7" s="35"/>
     </row>
@@ -10564,227 +10461,227 @@
       <c r="H9" s="55"/>
       <c r="I9" s="43" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="J9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="K9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="L9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="M9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="N9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="O9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="P9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="Q9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="R9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="S9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="T9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="U9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="V9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="W9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="X9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="Y9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="Z9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AA9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="AB9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AC9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="AD9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AE9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AF9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="AG9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AH9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="AI9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AJ9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="AK9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AL9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AM9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="AN9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AO9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="AP9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AQ9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="AR9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AS9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AT9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="AU9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AV9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="AW9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AX9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="AY9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AZ9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BA9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="BB9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BC9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="BD9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="BE9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="BF9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="BG9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BH9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="BI9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BJ9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="BK9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="BL9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="BM9" s="35"/>
     </row>
@@ -11108,7 +11005,7 @@
       </c>
       <c r="F12" s="26">
         <f ca="1">TODAY()</f>
-        <v>44706</v>
+        <v>44710</v>
       </c>
       <c r="G12" s="27">
         <v>3</v>
@@ -11352,7 +11249,7 @@
       <c r="E13" s="25"/>
       <c r="F13" s="26">
         <f ca="1">TODAY()+5</f>
-        <v>44711</v>
+        <v>44715</v>
       </c>
       <c r="G13" s="27">
         <v>1</v>
@@ -11598,7 +11495,7 @@
       </c>
       <c r="F14" s="26">
         <f ca="1">F12-3</f>
-        <v>44703</v>
+        <v>44707</v>
       </c>
       <c r="G14" s="27">
         <v>10</v>
@@ -11842,7 +11739,7 @@
       <c r="E15" s="25"/>
       <c r="F15" s="26">
         <f ca="1">F12+20</f>
-        <v>44726</v>
+        <v>44730</v>
       </c>
       <c r="G15" s="27">
         <v>1</v>
@@ -12088,7 +11985,7 @@
       </c>
       <c r="F16" s="26">
         <f ca="1">F12+6</f>
-        <v>44712</v>
+        <v>44716</v>
       </c>
       <c r="G16" s="27">
         <v>6</v>
@@ -12571,7 +12468,7 @@
       </c>
       <c r="F18" s="26">
         <f ca="1">F12+6</f>
-        <v>44712</v>
+        <v>44716</v>
       </c>
       <c r="G18" s="27">
         <v>13</v>
@@ -12817,7 +12714,7 @@
       </c>
       <c r="F19" s="26">
         <f ca="1">F18+2</f>
-        <v>44714</v>
+        <v>44718</v>
       </c>
       <c r="G19" s="27">
         <v>9</v>
@@ -13063,7 +12960,7 @@
       </c>
       <c r="F20" s="26">
         <f ca="1">F19+5</f>
-        <v>44719</v>
+        <v>44723</v>
       </c>
       <c r="G20" s="27">
         <v>11</v>
@@ -13307,7 +13204,7 @@
       <c r="E21" s="25"/>
       <c r="F21" s="26">
         <f ca="1">F20+2</f>
-        <v>44721</v>
+        <v>44725</v>
       </c>
       <c r="G21" s="27">
         <v>1</v>
@@ -13549,7 +13446,7 @@
       <c r="E22" s="25"/>
       <c r="F22" s="26">
         <f ca="1">F21+1</f>
-        <v>44722</v>
+        <v>44726</v>
       </c>
       <c r="G22" s="27">
         <v>24</v>
@@ -14030,7 +13927,7 @@
       <c r="E24" s="25"/>
       <c r="F24" s="26">
         <f ca="1">F12+15</f>
-        <v>44721</v>
+        <v>44725</v>
       </c>
       <c r="G24" s="27">
         <v>4</v>
@@ -14274,7 +14171,7 @@
       <c r="E25" s="25"/>
       <c r="F25" s="26">
         <f ca="1">F24+3</f>
-        <v>44724</v>
+        <v>44728</v>
       </c>
       <c r="G25" s="27">
         <v>14</v>
@@ -14518,7 +14415,7 @@
       <c r="E26" s="25"/>
       <c r="F26" s="26">
         <f ca="1">F25+15</f>
-        <v>44739</v>
+        <v>44743</v>
       </c>
       <c r="G26" s="27">
         <v>6</v>
@@ -14762,7 +14659,7 @@
       <c r="E27" s="25"/>
       <c r="F27" s="26">
         <f ca="1">F21+22</f>
-        <v>44743</v>
+        <v>44747</v>
       </c>
       <c r="G27" s="27">
         <v>3</v>
@@ -15006,7 +14903,7 @@
       <c r="E28" s="25"/>
       <c r="F28" s="26">
         <f ca="1">F16</f>
-        <v>44712</v>
+        <v>44716</v>
       </c>
       <c r="G28" s="27">
         <v>19</v>
@@ -15485,7 +15382,7 @@
       <c r="E30" s="25"/>
       <c r="F30" s="26">
         <f ca="1">F27+3</f>
-        <v>44746</v>
+        <v>44750</v>
       </c>
       <c r="G30" s="27">
         <v>15</v>
@@ -15727,7 +15624,7 @@
       <c r="E31" s="25"/>
       <c r="F31" s="26">
         <f ca="1">F30+14</f>
-        <v>44760</v>
+        <v>44764</v>
       </c>
       <c r="G31" s="27">
         <v>5</v>
@@ -15971,7 +15868,7 @@
       <c r="E32" s="25"/>
       <c r="F32" s="26">
         <f ca="1">F31+42</f>
-        <v>44802</v>
+        <v>44806</v>
       </c>
       <c r="G32" s="27">
         <v>1</v>
@@ -17015,56 +16912,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="27" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="26" priority="4">
+    <cfRule type="expression" dxfId="34" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="25" priority="3">
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="23" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="7" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="8" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="9" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="10" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="18" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="13" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="14" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="15" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="16" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="17" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17217,27 +17114,27 @@
     <row r="1" spans="1:68" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:68" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="158"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="158"/>
-      <c r="T2" s="158"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
       <c r="U2" s="115"/>
       <c r="V2" s="115"/>
       <c r="W2" s="115"/>
@@ -17364,26 +17261,26 @@
         <v>18</v>
       </c>
       <c r="H4" s="84"/>
-      <c r="I4" s="149" t="s">
+      <c r="I4" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
       <c r="M4" s="99"/>
-      <c r="N4" s="150" t="s">
+      <c r="N4" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="150"/>
-      <c r="P4" s="150"/>
-      <c r="Q4" s="150"/>
+      <c r="O4" s="149"/>
+      <c r="P4" s="149"/>
+      <c r="Q4" s="149"/>
       <c r="R4" s="99"/>
-      <c r="S4" s="151" t="s">
+      <c r="S4" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="151"/>
-      <c r="U4" s="151"/>
-      <c r="V4" s="151"/>
+      <c r="T4" s="150"/>
+      <c r="U4" s="150"/>
+      <c r="V4" s="150"/>
       <c r="W4" s="99"/>
       <c r="X4" s="144" t="s">
         <v>29</v>
@@ -17508,7 +17405,7 @@
       </c>
       <c r="C6" s="90" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones43524[Start])=0,TODAY(),B11(Milestones43524[Start])),TODAY())</f>
-        <v>44706</v>
+        <v>44710</v>
       </c>
       <c r="D6" s="91"/>
       <c r="E6" s="84"/>
@@ -17517,7 +17414,7 @@
       <c r="H6" s="84"/>
       <c r="I6" s="109" t="str">
         <f ca="1">TEXT(I7,"mmmm")</f>
-        <v>May</v>
+        <v>June</v>
       </c>
       <c r="J6" s="109"/>
       <c r="K6" s="109"/>
@@ -17527,7 +17424,7 @@
       <c r="O6" s="109"/>
       <c r="P6" s="109" t="str">
         <f ca="1">IF(TEXT(P7,"mmmm")=I6,"",TEXT(P7,"mmmm"))</f>
-        <v>June</v>
+        <v/>
       </c>
       <c r="Q6" s="109"/>
       <c r="R6" s="109"/>
@@ -17557,7 +17454,7 @@
       <c r="AJ6" s="109"/>
       <c r="AK6" s="109" t="str">
         <f ca="1">IF(OR(TEXT(AK7,"mmmm")=AD6,TEXT(AK7,"mmmm")=W6,TEXT(AK7,"mmmm")=P6,TEXT(AK7,"mmmm")=I6),"",TEXT(AK7,"mmmm"))</f>
-        <v/>
+        <v>July</v>
       </c>
       <c r="AL6" s="109"/>
       <c r="AM6" s="109"/>
@@ -17567,7 +17464,7 @@
       <c r="AQ6" s="109"/>
       <c r="AR6" s="109" t="str">
         <f ca="1">IF(OR(TEXT(AR7,"mmmm")=AK6,TEXT(AR7,"mmmm")=AD6,TEXT(AR7,"mmmm")=W6,TEXT(AR7,"mmmm")=P6),"",TEXT(AR7,"mmmm"))</f>
-        <v>July</v>
+        <v/>
       </c>
       <c r="AS6" s="109"/>
       <c r="AT6" s="109"/>
@@ -17612,227 +17509,227 @@
       <c r="H7" s="94"/>
       <c r="I7" s="116">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44711</v>
+        <v>44715</v>
       </c>
       <c r="J7" s="117">
         <f ca="1">I7+1</f>
-        <v>44712</v>
+        <v>44716</v>
       </c>
       <c r="K7" s="117">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44713</v>
+        <v>44717</v>
       </c>
       <c r="L7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44714</v>
+        <v>44718</v>
       </c>
       <c r="M7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44715</v>
+        <v>44719</v>
       </c>
       <c r="N7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44716</v>
+        <v>44720</v>
       </c>
       <c r="O7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44717</v>
+        <v>44721</v>
       </c>
       <c r="P7" s="117">
         <f ca="1">O7+1</f>
-        <v>44718</v>
+        <v>44722</v>
       </c>
       <c r="Q7" s="117">
         <f ca="1">P7+1</f>
-        <v>44719</v>
+        <v>44723</v>
       </c>
       <c r="R7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44720</v>
+        <v>44724</v>
       </c>
       <c r="S7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44721</v>
+        <v>44725</v>
       </c>
       <c r="T7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44722</v>
+        <v>44726</v>
       </c>
       <c r="U7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44723</v>
+        <v>44727</v>
       </c>
       <c r="V7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44724</v>
+        <v>44728</v>
       </c>
       <c r="W7" s="117">
         <f ca="1">V7+1</f>
-        <v>44725</v>
+        <v>44729</v>
       </c>
       <c r="X7" s="117">
         <f ca="1">W7+1</f>
-        <v>44726</v>
+        <v>44730</v>
       </c>
       <c r="Y7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44727</v>
+        <v>44731</v>
       </c>
       <c r="Z7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44728</v>
+        <v>44732</v>
       </c>
       <c r="AA7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44729</v>
+        <v>44733</v>
       </c>
       <c r="AB7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44730</v>
+        <v>44734</v>
       </c>
       <c r="AC7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44731</v>
+        <v>44735</v>
       </c>
       <c r="AD7" s="117">
         <f ca="1">AC7+1</f>
-        <v>44732</v>
+        <v>44736</v>
       </c>
       <c r="AE7" s="117">
         <f ca="1">AD7+1</f>
-        <v>44733</v>
+        <v>44737</v>
       </c>
       <c r="AF7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44734</v>
+        <v>44738</v>
       </c>
       <c r="AG7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44735</v>
+        <v>44739</v>
       </c>
       <c r="AH7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44736</v>
+        <v>44740</v>
       </c>
       <c r="AI7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44737</v>
+        <v>44741</v>
       </c>
       <c r="AJ7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44738</v>
+        <v>44742</v>
       </c>
       <c r="AK7" s="117">
         <f ca="1">AJ7+1</f>
-        <v>44739</v>
+        <v>44743</v>
       </c>
       <c r="AL7" s="117">
         <f ca="1">AK7+1</f>
-        <v>44740</v>
+        <v>44744</v>
       </c>
       <c r="AM7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44741</v>
+        <v>44745</v>
       </c>
       <c r="AN7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44742</v>
+        <v>44746</v>
       </c>
       <c r="AO7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44743</v>
+        <v>44747</v>
       </c>
       <c r="AP7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44744</v>
+        <v>44748</v>
       </c>
       <c r="AQ7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44745</v>
+        <v>44749</v>
       </c>
       <c r="AR7" s="117">
         <f ca="1">AQ7+1</f>
-        <v>44746</v>
+        <v>44750</v>
       </c>
       <c r="AS7" s="117">
         <f ca="1">AR7+1</f>
-        <v>44747</v>
+        <v>44751</v>
       </c>
       <c r="AT7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44748</v>
+        <v>44752</v>
       </c>
       <c r="AU7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44749</v>
+        <v>44753</v>
       </c>
       <c r="AV7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44750</v>
+        <v>44754</v>
       </c>
       <c r="AW7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44751</v>
+        <v>44755</v>
       </c>
       <c r="AX7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44752</v>
+        <v>44756</v>
       </c>
       <c r="AY7" s="117">
         <f ca="1">AX7+1</f>
-        <v>44753</v>
+        <v>44757</v>
       </c>
       <c r="AZ7" s="117">
         <f ca="1">AY7+1</f>
-        <v>44754</v>
+        <v>44758</v>
       </c>
       <c r="BA7" s="117">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44755</v>
+        <v>44759</v>
       </c>
       <c r="BB7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44756</v>
+        <v>44760</v>
       </c>
       <c r="BC7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44757</v>
+        <v>44761</v>
       </c>
       <c r="BD7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44758</v>
+        <v>44762</v>
       </c>
       <c r="BE7" s="118">
         <f t="shared" ca="1" si="1"/>
-        <v>44759</v>
+        <v>44763</v>
       </c>
       <c r="BF7" s="117">
         <f ca="1">BE7+1</f>
-        <v>44760</v>
+        <v>44764</v>
       </c>
       <c r="BG7" s="117">
         <f ca="1">BF7+1</f>
-        <v>44761</v>
+        <v>44765</v>
       </c>
       <c r="BH7" s="117">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44762</v>
+        <v>44766</v>
       </c>
       <c r="BI7" s="117">
         <f t="shared" ca="1" si="2"/>
-        <v>44763</v>
+        <v>44767</v>
       </c>
       <c r="BJ7" s="117">
         <f t="shared" ca="1" si="2"/>
-        <v>44764</v>
+        <v>44768</v>
       </c>
       <c r="BK7" s="117">
         <f t="shared" ca="1" si="2"/>
-        <v>44765</v>
+        <v>44769</v>
       </c>
       <c r="BL7" s="118">
         <f t="shared" ca="1" si="2"/>
-        <v>44766</v>
+        <v>44770</v>
       </c>
       <c r="BM7" s="99"/>
     </row>
@@ -17926,227 +17823,227 @@
       <c r="H9" s="105"/>
       <c r="I9" s="124" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="J9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="K9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="L9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="M9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="N9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="O9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="P9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="Q9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="R9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="S9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="T9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="U9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="V9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="W9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="X9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="Y9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="Z9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AA9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AB9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="AC9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AD9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="AE9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AF9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="AG9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AH9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AI9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="AJ9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AK9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="AL9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AM9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="AN9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AO9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AP9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="AQ9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AR9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="AS9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AT9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="AU9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AV9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AW9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="AX9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AY9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="AZ9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="BA9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="BB9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="BC9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BD9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="BE9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BF9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="BG9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="BH9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="BI9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="BJ9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BK9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="BL9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BM9" s="99"/>
     </row>
@@ -18470,7 +18367,7 @@
       </c>
       <c r="F12" s="69">
         <f ca="1">TODAY()</f>
-        <v>44706</v>
+        <v>44710</v>
       </c>
       <c r="G12" s="70">
         <v>3</v>
@@ -18714,7 +18611,7 @@
       <c r="E13" s="68"/>
       <c r="F13" s="69">
         <f ca="1">TODAY()+5</f>
-        <v>44711</v>
+        <v>44715</v>
       </c>
       <c r="G13" s="70">
         <v>1</v>
@@ -18960,7 +18857,7 @@
       </c>
       <c r="F14" s="69">
         <f ca="1">F12-3</f>
-        <v>44703</v>
+        <v>44707</v>
       </c>
       <c r="G14" s="70">
         <v>10</v>
@@ -19204,7 +19101,7 @@
       <c r="E15" s="68"/>
       <c r="F15" s="69">
         <f ca="1">F12+20</f>
-        <v>44726</v>
+        <v>44730</v>
       </c>
       <c r="G15" s="70">
         <v>1</v>
@@ -19450,7 +19347,7 @@
       </c>
       <c r="F16" s="69">
         <f ca="1">F12+6</f>
-        <v>44712</v>
+        <v>44716</v>
       </c>
       <c r="G16" s="70">
         <v>6</v>
@@ -19933,7 +19830,7 @@
       </c>
       <c r="F18" s="69">
         <f ca="1">F12+6</f>
-        <v>44712</v>
+        <v>44716</v>
       </c>
       <c r="G18" s="70">
         <v>13</v>
@@ -20179,7 +20076,7 @@
       </c>
       <c r="F19" s="69">
         <f ca="1">F18+2</f>
-        <v>44714</v>
+        <v>44718</v>
       </c>
       <c r="G19" s="70">
         <v>9</v>
@@ -20425,7 +20322,7 @@
       </c>
       <c r="F20" s="69">
         <f ca="1">F19+5</f>
-        <v>44719</v>
+        <v>44723</v>
       </c>
       <c r="G20" s="70">
         <v>11</v>
@@ -20669,7 +20566,7 @@
       <c r="E21" s="68"/>
       <c r="F21" s="69">
         <f ca="1">F20+2</f>
-        <v>44721</v>
+        <v>44725</v>
       </c>
       <c r="G21" s="70">
         <v>1</v>
@@ -20911,7 +20808,7 @@
       <c r="E22" s="68"/>
       <c r="F22" s="69">
         <f ca="1">F21+1</f>
-        <v>44722</v>
+        <v>44726</v>
       </c>
       <c r="G22" s="70">
         <v>24</v>
@@ -21392,7 +21289,7 @@
       <c r="E24" s="68"/>
       <c r="F24" s="69">
         <f ca="1">F12+15</f>
-        <v>44721</v>
+        <v>44725</v>
       </c>
       <c r="G24" s="70">
         <v>4</v>
@@ -21636,7 +21533,7 @@
       <c r="E25" s="68"/>
       <c r="F25" s="69">
         <f ca="1">F24+3</f>
-        <v>44724</v>
+        <v>44728</v>
       </c>
       <c r="G25" s="70">
         <v>14</v>
@@ -21880,7 +21777,7 @@
       <c r="E26" s="68"/>
       <c r="F26" s="69">
         <f ca="1">F25+15</f>
-        <v>44739</v>
+        <v>44743</v>
       </c>
       <c r="G26" s="70">
         <v>6</v>
@@ -22124,7 +22021,7 @@
       <c r="E27" s="68"/>
       <c r="F27" s="69">
         <f ca="1">F21+22</f>
-        <v>44743</v>
+        <v>44747</v>
       </c>
       <c r="G27" s="70">
         <v>3</v>
@@ -22368,7 +22265,7 @@
       <c r="E28" s="68"/>
       <c r="F28" s="69">
         <f ca="1">F16</f>
-        <v>44712</v>
+        <v>44716</v>
       </c>
       <c r="G28" s="70">
         <v>19</v>
@@ -22847,7 +22744,7 @@
       <c r="E30" s="68"/>
       <c r="F30" s="69">
         <f ca="1">F27+3</f>
-        <v>44746</v>
+        <v>44750</v>
       </c>
       <c r="G30" s="70">
         <v>15</v>
@@ -23089,7 +22986,7 @@
       <c r="E31" s="68"/>
       <c r="F31" s="69">
         <f ca="1">F30+14</f>
-        <v>44760</v>
+        <v>44764</v>
       </c>
       <c r="G31" s="70">
         <v>5</v>
@@ -23333,7 +23230,7 @@
       <c r="E32" s="68"/>
       <c r="F32" s="69">
         <f ca="1">F31+42</f>
-        <v>44802</v>
+        <v>44806</v>
       </c>
       <c r="G32" s="70">
         <v>1</v>
@@ -24377,56 +24274,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="8" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="4" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="13" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="14" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="15" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="16" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="17" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24553,6 +24450,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22a266b9fa9a230c5a512669d8b298c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eddc33fff6b14141ee5c74a0d29ea6a1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -24828,25 +24744,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -24857,6 +24754,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75C87518-DD8E-42CD-8DAC-291A323E849B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24877,18 +24786,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
   <ds:schemaRefs>
